--- a/assets/vendor/doc-viewer/files/expenses_2023.xlsx
+++ b/assets/vendor/doc-viewer/files/expenses_2023.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="16275" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Nov 2023" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Maitainance" sheetId="1" r:id="rId1"/>
+    <sheet name="Staff Salary" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Title</t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Umesh Dhide</t>
+  </si>
+  <si>
+    <t>Watchman</t>
+  </si>
+  <si>
+    <t>Oct</t>
   </si>
 </sst>
 </file>
@@ -102,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -118,6 +136,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,7 +444,7 @@
   <dimension ref="C6:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,12 +637,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D4:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="8"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
